--- a/cta策略/result/螺纹/BIAS_1d/绩效.xlsx
+++ b/cta策略/result/螺纹/BIAS_1d/绩效.xlsx
@@ -513,13 +513,13 @@
         <v>6</v>
       </c>
       <c r="C2">
-        <v>-0.01939110708008851</v>
+        <v>-0.01292021144850364</v>
       </c>
       <c r="D2">
-        <v>-0.2246998435981437</v>
+        <v>-0.2436737227002532</v>
       </c>
       <c r="E2">
-        <v>-0.02916697295147315</v>
+        <v>-0.01930623532565109</v>
       </c>
       <c r="F2">
         <v>0.5</v>
@@ -533,13 +533,13 @@
         <v>7</v>
       </c>
       <c r="C3">
-        <v>0.0962235380856602</v>
+        <v>0.06160242471845656</v>
       </c>
       <c r="D3">
-        <v>0.2274570547187576</v>
+        <v>0.105206382909127</v>
       </c>
       <c r="E3">
-        <v>0.2364676134491321</v>
+        <v>0.1493473548270135</v>
       </c>
       <c r="F3">
         <v>0.45</v>
@@ -553,13 +553,13 @@
         <v>8</v>
       </c>
       <c r="C4">
-        <v>0.09783156319934361</v>
+        <v>0.06160242471845656</v>
       </c>
       <c r="D4">
-        <v>0.2356105376492981</v>
+        <v>0.105206382909127</v>
       </c>
       <c r="E4">
-        <v>0.2465674289074685</v>
+        <v>0.1493473548270135</v>
       </c>
       <c r="F4">
         <v>0.45</v>
@@ -573,13 +573,13 @@
         <v>9</v>
       </c>
       <c r="C5">
-        <v>0.1469360811878615</v>
+        <v>0.09767039910794373</v>
       </c>
       <c r="D5">
-        <v>0.4903472527720644</v>
+        <v>0.3129111953612512</v>
       </c>
       <c r="E5">
-        <v>0.5153618578323464</v>
+        <v>0.3312756499136886</v>
       </c>
       <c r="F5">
         <v>0.4</v>
@@ -593,13 +593,13 @@
         <v>10</v>
       </c>
       <c r="C6">
-        <v>0.1457940782564089</v>
+        <v>0.09767039910794373</v>
       </c>
       <c r="D6">
-        <v>0.4877082197965282</v>
+        <v>0.3129111953612512</v>
       </c>
       <c r="E6">
-        <v>0.5113571451355395</v>
+        <v>0.3312756499136886</v>
       </c>
       <c r="F6">
         <v>0.4</v>
@@ -613,13 +613,13 @@
         <v>11</v>
       </c>
       <c r="C7">
-        <v>0.1443063076996418</v>
+        <v>0.09767039910794373</v>
       </c>
       <c r="D7">
-        <v>0.4886418716673729</v>
+        <v>0.3129111953612512</v>
       </c>
       <c r="E7">
-        <v>0.5061013060013833</v>
+        <v>0.3312756499136886</v>
       </c>
       <c r="F7">
         <v>0.4</v>
@@ -633,13 +633,13 @@
         <v>12</v>
       </c>
       <c r="C8">
-        <v>0.1446066151154362</v>
+        <v>0.09767039910794373</v>
       </c>
       <c r="D8">
-        <v>0.4900659122448756</v>
+        <v>0.3129111953612512</v>
       </c>
       <c r="E8">
-        <v>0.5071545238250404</v>
+        <v>0.3312756499136886</v>
       </c>
       <c r="F8">
         <v>0.4</v>
@@ -653,13 +653,13 @@
         <v>13</v>
       </c>
       <c r="C9">
-        <v>0.09048675943193474</v>
+        <v>0.05934663124578599</v>
       </c>
       <c r="D9">
-        <v>0.2324303634247792</v>
+        <v>0.1092183709724547</v>
       </c>
       <c r="E9">
-        <v>0.302642404846507</v>
+        <v>0.1998061233461692</v>
       </c>
       <c r="F9">
         <v>0.3</v>
@@ -673,13 +673,13 @@
         <v>14</v>
       </c>
       <c r="C10">
-        <v>0.09048675943193474</v>
+        <v>0.05934663124578599</v>
       </c>
       <c r="D10">
-        <v>0.2324303634247792</v>
+        <v>0.1092183709724547</v>
       </c>
       <c r="E10">
-        <v>0.302642404846507</v>
+        <v>0.1998061233461692</v>
       </c>
       <c r="F10">
         <v>0.3</v>
@@ -710,13 +710,13 @@
         <v>16</v>
       </c>
       <c r="C12">
-        <v>-0.01579107964567861</v>
+        <v>-0.01292021144850364</v>
       </c>
       <c r="D12">
-        <v>-0.2100366111424145</v>
+        <v>-0.2436737227002532</v>
       </c>
       <c r="E12">
-        <v>-0.02372507672616527</v>
+        <v>-0.01930623532565109</v>
       </c>
       <c r="F12">
         <v>0.5</v>
@@ -730,13 +730,13 @@
         <v>17</v>
       </c>
       <c r="C13">
-        <v>-0.01984919693294029</v>
+        <v>-0.01527706494984782</v>
       </c>
       <c r="D13">
-        <v>-0.2258455209602083</v>
+        <v>-0.2546285370388026</v>
       </c>
       <c r="E13">
-        <v>-0.02991350595856052</v>
+        <v>-0.02282800186221236</v>
       </c>
       <c r="F13">
         <v>0.5</v>
@@ -750,13 +750,13 @@
         <v>18</v>
       </c>
       <c r="C14">
-        <v>-0.0234248657858841</v>
+        <v>-0.0176496620331783</v>
       </c>
       <c r="D14">
-        <v>-0.2403635859939852</v>
+        <v>-0.2656422414895849</v>
       </c>
       <c r="E14">
-        <v>-0.03537965580208505</v>
+        <v>-0.0263593514279298</v>
       </c>
       <c r="F14">
         <v>0.5</v>
@@ -770,13 +770,13 @@
         <v>19</v>
       </c>
       <c r="C15">
-        <v>0.195683471543088</v>
+        <v>0.1284408582818906</v>
       </c>
       <c r="D15">
-        <v>0.6744529669890882</v>
+        <v>0.4638638885320207</v>
       </c>
       <c r="E15">
-        <v>0.6594571949328168</v>
+        <v>0.4356420081357562</v>
       </c>
       <c r="F15">
         <v>0.45</v>
@@ -790,13 +790,13 @@
         <v>20</v>
       </c>
       <c r="C16">
-        <v>0.1704595074715149</v>
+        <v>0.1115860559464428</v>
       </c>
       <c r="D16">
-        <v>0.5691914425489495</v>
+        <v>0.3795375652896916</v>
       </c>
       <c r="E16">
-        <v>0.5744519338315395</v>
+        <v>0.3784743744530953</v>
       </c>
       <c r="F16">
         <v>0.4</v>
@@ -810,13 +810,13 @@
         <v>21</v>
       </c>
       <c r="C17">
-        <v>0.1465074842145133</v>
+        <v>0.09767039910794373</v>
       </c>
       <c r="D17">
-        <v>0.4817509941451768</v>
+        <v>0.3129111953612512</v>
       </c>
       <c r="E17">
-        <v>0.4937333007725279</v>
+        <v>0.3312756499136886</v>
       </c>
       <c r="F17">
         <v>0.4</v>
@@ -830,13 +830,13 @@
         <v>22</v>
       </c>
       <c r="C18">
-        <v>0.1441552090747185</v>
+        <v>0.09767039910794373</v>
       </c>
       <c r="D18">
-        <v>0.4697187189507935</v>
+        <v>0.3129111953612512</v>
       </c>
       <c r="E18">
-        <v>0.4675508926199565</v>
+        <v>0.3312756499136886</v>
       </c>
       <c r="F18">
         <v>0.4</v>
@@ -850,13 +850,13 @@
         <v>23</v>
       </c>
       <c r="C19">
-        <v>0.147096175072418</v>
+        <v>0.09767039910794373</v>
       </c>
       <c r="D19">
-        <v>0.491278328242137</v>
+        <v>0.3129111953612512</v>
       </c>
       <c r="E19">
-        <v>0.5159241105328137</v>
+        <v>0.3312756499136886</v>
       </c>
       <c r="F19">
         <v>0.4</v>
@@ -870,13 +870,13 @@
         <v>24</v>
       </c>
       <c r="C20">
-        <v>0.1453487729663965</v>
+        <v>0.09767039910794373</v>
       </c>
       <c r="D20">
-        <v>0.4853104292811792</v>
+        <v>0.3129111953612512</v>
       </c>
       <c r="E20">
-        <v>0.5097573695607375</v>
+        <v>0.3312756499136886</v>
       </c>
       <c r="F20">
         <v>0.4</v>
@@ -890,13 +890,13 @@
         <v>25</v>
       </c>
       <c r="C21">
-        <v>0.09656620844000519</v>
+        <v>0.06621163787211581</v>
       </c>
       <c r="D21">
-        <v>0.2715628939466511</v>
+        <v>0.1473466213545742</v>
       </c>
       <c r="E21">
-        <v>0.3393193640311007</v>
+        <v>0.2246198497100305</v>
       </c>
       <c r="F21">
         <v>0.3</v>
@@ -910,13 +910,13 @@
         <v>26</v>
       </c>
       <c r="C22">
-        <v>-0.02223631442699914</v>
+        <v>-0.01511723273265386</v>
       </c>
       <c r="D22">
-        <v>-0.2334148519474381</v>
+        <v>-0.2538928743515556</v>
       </c>
       <c r="E22">
-        <v>-0.03333879487862326</v>
+        <v>-0.02258916998377413</v>
       </c>
       <c r="F22">
         <v>0.5</v>
@@ -930,13 +930,13 @@
         <v>27</v>
       </c>
       <c r="C23">
-        <v>-0.0203002436717401</v>
+        <v>-0.01511723273265386</v>
       </c>
       <c r="D23">
-        <v>-0.2269835518658669</v>
+        <v>-0.2538928743515556</v>
       </c>
       <c r="E23">
-        <v>-0.030496232273511</v>
+        <v>-0.02258916998377413</v>
       </c>
       <c r="F23">
         <v>0.5</v>
@@ -950,13 +950,13 @@
         <v>28</v>
       </c>
       <c r="C24">
-        <v>-0.02298228755504794</v>
+        <v>-0.01694906048038936</v>
       </c>
       <c r="D24">
-        <v>-0.2376857520837867</v>
+        <v>-0.2624043462008336</v>
       </c>
       <c r="E24">
-        <v>-0.03451961190095114</v>
+        <v>-0.02532641968354535</v>
       </c>
       <c r="F24">
         <v>0.5</v>
@@ -970,13 +970,13 @@
         <v>29</v>
       </c>
       <c r="C25">
-        <v>-0.02264219340552298</v>
+        <v>-0.0176496620331783</v>
       </c>
       <c r="D25">
-        <v>-0.2369019874529835</v>
+        <v>-0.2656422414895849</v>
       </c>
       <c r="E25">
-        <v>-0.0340819284394152</v>
+        <v>-0.0263593514279298</v>
       </c>
       <c r="F25">
         <v>0.5</v>
@@ -990,13 +990,13 @@
         <v>30</v>
       </c>
       <c r="C26">
-        <v>0.197866324599842</v>
+        <v>0.1284408582818906</v>
       </c>
       <c r="D26">
-        <v>0.6803812475591009</v>
+        <v>0.4638638885320207</v>
       </c>
       <c r="E26">
-        <v>0.6662222257241304</v>
+        <v>0.4356420081357562</v>
       </c>
       <c r="F26">
         <v>0.45</v>
@@ -1010,13 +1010,13 @@
         <v>31</v>
       </c>
       <c r="C27">
-        <v>0.1728721319876778</v>
+        <v>0.1115860559464428</v>
       </c>
       <c r="D27">
-        <v>0.5800082962649605</v>
+        <v>0.3795375652896916</v>
       </c>
       <c r="E27">
-        <v>0.5821537369346156</v>
+        <v>0.3784743744530953</v>
       </c>
       <c r="F27">
         <v>0.4</v>
@@ -1030,13 +1030,13 @@
         <v>32</v>
       </c>
       <c r="C28">
-        <v>0.1438138376903055</v>
+        <v>0.09457108143857451</v>
       </c>
       <c r="D28">
-        <v>0.459128967418376</v>
+        <v>0.2958307067452083</v>
       </c>
       <c r="E28">
-        <v>0.4765041353324352</v>
+        <v>0.320763473403849</v>
       </c>
       <c r="F28">
         <v>0.35</v>
@@ -1050,13 +1050,13 @@
         <v>33</v>
       </c>
       <c r="C29">
-        <v>0.1438566863634587</v>
+        <v>0.09457108143857451</v>
       </c>
       <c r="D29">
-        <v>0.462050610368661</v>
+        <v>0.2958307067452083</v>
       </c>
       <c r="E29">
-        <v>0.4766462602948358</v>
+        <v>0.320763473403849</v>
       </c>
       <c r="F29">
         <v>0.35</v>
@@ -1070,13 +1070,13 @@
         <v>34</v>
       </c>
       <c r="C30">
-        <v>0.1497175937753401</v>
+        <v>0.09767039910794373</v>
       </c>
       <c r="D30">
-        <v>0.4898544142475528</v>
+        <v>0.3129111953612512</v>
       </c>
       <c r="E30">
-        <v>0.5045514467340898</v>
+        <v>0.3312756499136886</v>
       </c>
       <c r="F30">
         <v>0.4</v>
@@ -1090,13 +1090,13 @@
         <v>35</v>
       </c>
       <c r="C31">
-        <v>0.1484349718451057</v>
+        <v>0.09767039910794373</v>
       </c>
       <c r="D31">
-        <v>0.4875953553844496</v>
+        <v>0.3129111953612512</v>
       </c>
       <c r="E31">
-        <v>0.5002289837944053</v>
+        <v>0.3312756499136886</v>
       </c>
       <c r="F31">
         <v>0.4</v>

--- a/cta策略/result/螺纹/BIAS_1d/绩效.xlsx
+++ b/cta策略/result/螺纹/BIAS_1d/绩效.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="36">
   <si>
     <t>参数</t>
   </si>
@@ -122,9 +122,6 @@
   </si>
   <si>
     <t>[20, 10]</t>
-  </si>
-  <si>
-    <t>-inf</t>
   </si>
 </sst>
 </file>
@@ -513,16 +510,16 @@
         <v>6</v>
       </c>
       <c r="C2">
-        <v>-0.01292021144850364</v>
+        <v>-0.03993860313995212</v>
       </c>
       <c r="D2">
-        <v>-0.2436737227002532</v>
+        <v>-0.6158232747680568</v>
       </c>
       <c r="E2">
-        <v>-0.01930623532565109</v>
+        <v>-0.1338915026244455</v>
       </c>
       <c r="F2">
-        <v>0.5</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -533,16 +530,16 @@
         <v>7</v>
       </c>
       <c r="C3">
-        <v>0.06160242471845656</v>
+        <v>-0.009693062817418996</v>
       </c>
       <c r="D3">
-        <v>0.105206382909127</v>
+        <v>-0.4735805843852851</v>
       </c>
       <c r="E3">
-        <v>0.1493473548270135</v>
+        <v>-0.05018491204099192</v>
       </c>
       <c r="F3">
-        <v>0.45</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -553,16 +550,16 @@
         <v>8</v>
       </c>
       <c r="C4">
-        <v>0.06160242471845656</v>
+        <v>-0.01743879923991998</v>
       </c>
       <c r="D4">
-        <v>0.105206382909127</v>
+        <v>-0.645583565483418</v>
       </c>
       <c r="E4">
-        <v>0.1493473548270135</v>
+        <v>-0.1001470007492088</v>
       </c>
       <c r="F4">
-        <v>0.45</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -573,16 +570,16 @@
         <v>9</v>
       </c>
       <c r="C5">
-        <v>0.09767039910794373</v>
+        <v>-0.03670658214260369</v>
       </c>
       <c r="D5">
-        <v>0.3129111953612512</v>
+        <v>-1.381227981137247</v>
       </c>
       <c r="E5">
-        <v>0.3312756499136886</v>
+        <v>-0.1213672905801172</v>
       </c>
       <c r="F5">
-        <v>0.4</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -593,16 +590,16 @@
         <v>10</v>
       </c>
       <c r="C6">
-        <v>0.09767039910794373</v>
+        <v>-0.02160433211481794</v>
       </c>
       <c r="D6">
-        <v>0.3129111953612512</v>
+        <v>-1.280085010930806</v>
       </c>
       <c r="E6">
-        <v>0.3312756499136886</v>
+        <v>-0.1052003740719623</v>
       </c>
       <c r="F6">
-        <v>0.4</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -613,16 +610,16 @@
         <v>11</v>
       </c>
       <c r="C7">
-        <v>0.09767039910794373</v>
+        <v>-0.005028553143324954</v>
       </c>
       <c r="D7">
-        <v>0.3129111953612512</v>
+        <v>-1.637253108210896</v>
       </c>
       <c r="E7">
-        <v>0.3312756499136886</v>
+        <v>-0.06957296216538617</v>
       </c>
       <c r="F7">
-        <v>0.4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -633,16 +630,16 @@
         <v>12</v>
       </c>
       <c r="C8">
-        <v>0.09767039910794373</v>
+        <v>-2.337953290232342e-05</v>
       </c>
       <c r="D8">
-        <v>0.3129111953612512</v>
+        <v>-1.538115229034902</v>
       </c>
       <c r="E8">
-        <v>0.3312756499136886</v>
+        <v>-0.0005106165024570859</v>
       </c>
       <c r="F8">
-        <v>0.4</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -653,16 +650,16 @@
         <v>13</v>
       </c>
       <c r="C9">
-        <v>0.05934663124578599</v>
+        <v>-0.006623177003173608</v>
       </c>
       <c r="D9">
-        <v>0.1092183709724547</v>
+        <v>-2.658477410573188</v>
       </c>
       <c r="E9">
-        <v>0.1998061233461692</v>
+        <v>-0.1368870529108293</v>
       </c>
       <c r="F9">
-        <v>0.3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -673,16 +670,16 @@
         <v>14</v>
       </c>
       <c r="C10">
-        <v>0.05934663124578599</v>
+        <v>-0.006623177003173608</v>
       </c>
       <c r="D10">
-        <v>0.1092183709724547</v>
+        <v>-2.658477410573188</v>
       </c>
       <c r="E10">
-        <v>0.1998061233461692</v>
+        <v>-0.1368870529108293</v>
       </c>
       <c r="F10">
-        <v>0.3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -695,8 +692,11 @@
       <c r="C11">
         <v>0</v>
       </c>
-      <c r="D11" t="s">
-        <v>36</v>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -710,13 +710,13 @@
         <v>16</v>
       </c>
       <c r="C12">
-        <v>-0.01292021144850364</v>
+        <v>0.02169421142247518</v>
       </c>
       <c r="D12">
-        <v>-0.2436737227002532</v>
+        <v>-0.1223282258466026</v>
       </c>
       <c r="E12">
-        <v>-0.01930623532565109</v>
+        <v>0.09716447523349668</v>
       </c>
       <c r="F12">
         <v>0.5</v>
@@ -730,16 +730,16 @@
         <v>17</v>
       </c>
       <c r="C13">
-        <v>-0.01527706494984782</v>
+        <v>-0.02261995870224187</v>
       </c>
       <c r="D13">
-        <v>-0.2546285370388026</v>
+        <v>-0.4852495001518086</v>
       </c>
       <c r="E13">
-        <v>-0.02282800186221236</v>
+        <v>-0.1059479630729429</v>
       </c>
       <c r="F13">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -750,16 +750,16 @@
         <v>18</v>
       </c>
       <c r="C14">
-        <v>-0.0176496620331783</v>
+        <v>-0.0181637616398419</v>
       </c>
       <c r="D14">
-        <v>-0.2656422414895849</v>
+        <v>-0.553428904660851</v>
       </c>
       <c r="E14">
-        <v>-0.0263593514279298</v>
+        <v>-0.08477528564916377</v>
       </c>
       <c r="F14">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -770,16 +770,16 @@
         <v>19</v>
       </c>
       <c r="C15">
-        <v>0.1284408582818906</v>
+        <v>-0.02220561004601562</v>
       </c>
       <c r="D15">
-        <v>0.4638638885320207</v>
+        <v>-0.6813156598791611</v>
       </c>
       <c r="E15">
-        <v>0.4356420081357562</v>
+        <v>-0.1015424564621897</v>
       </c>
       <c r="F15">
-        <v>0.45</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -790,16 +790,16 @@
         <v>20</v>
       </c>
       <c r="C16">
-        <v>0.1115860559464428</v>
+        <v>-0.02923543622152092</v>
       </c>
       <c r="D16">
-        <v>0.3795375652896916</v>
+        <v>-0.877541779300592</v>
       </c>
       <c r="E16">
-        <v>0.3784743744530953</v>
+        <v>-0.1166262494199101</v>
       </c>
       <c r="F16">
-        <v>0.4</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -810,16 +810,16 @@
         <v>21</v>
       </c>
       <c r="C17">
-        <v>0.09767039910794373</v>
+        <v>-0.01682729428358321</v>
       </c>
       <c r="D17">
-        <v>0.3129111953612512</v>
+        <v>-0.8223661329808625</v>
       </c>
       <c r="E17">
-        <v>0.3312756499136886</v>
+        <v>-0.0875399406273908</v>
       </c>
       <c r="F17">
-        <v>0.4</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -830,16 +830,16 @@
         <v>22</v>
       </c>
       <c r="C18">
-        <v>0.09767039910794373</v>
+        <v>-0.01812082802380055</v>
       </c>
       <c r="D18">
-        <v>0.3129111953612512</v>
+        <v>-1.100125013508741</v>
       </c>
       <c r="E18">
-        <v>0.3312756499136886</v>
+        <v>-0.09297365613513398</v>
       </c>
       <c r="F18">
-        <v>0.4</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -850,16 +850,16 @@
         <v>23</v>
       </c>
       <c r="C19">
-        <v>0.09767039910794373</v>
+        <v>-0.0212004995973224</v>
       </c>
       <c r="D19">
-        <v>0.3129111953612512</v>
+        <v>-1.173932610584482</v>
       </c>
       <c r="E19">
-        <v>0.3312756499136886</v>
+        <v>-0.1044809525539924</v>
       </c>
       <c r="F19">
-        <v>0.4</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -870,16 +870,16 @@
         <v>24</v>
       </c>
       <c r="C20">
-        <v>0.09767039910794373</v>
+        <v>-0.02863635556555233</v>
       </c>
       <c r="D20">
-        <v>0.3129111953612512</v>
+        <v>-1.490259392467309</v>
       </c>
       <c r="E20">
-        <v>0.3312756499136886</v>
+        <v>-0.1331228063996225</v>
       </c>
       <c r="F20">
-        <v>0.4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -890,16 +890,16 @@
         <v>25</v>
       </c>
       <c r="C21">
-        <v>0.06621163787211581</v>
+        <v>-0.0097466911074231</v>
       </c>
       <c r="D21">
-        <v>0.1473466213545742</v>
+        <v>-1.48834474247488</v>
       </c>
       <c r="E21">
-        <v>0.2246198497100305</v>
+        <v>-0.08746438504467702</v>
       </c>
       <c r="F21">
-        <v>0.3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -910,16 +910,16 @@
         <v>26</v>
       </c>
       <c r="C22">
-        <v>-0.01511723273265386</v>
+        <v>0.03413519372626772</v>
       </c>
       <c r="D22">
-        <v>-0.2538928743515556</v>
+        <v>-0.03758410179470987</v>
       </c>
       <c r="E22">
-        <v>-0.02258916998377413</v>
+        <v>0.1232959688082458</v>
       </c>
       <c r="F22">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -930,16 +930,16 @@
         <v>27</v>
       </c>
       <c r="C23">
-        <v>-0.01511723273265386</v>
+        <v>0.0272537581692478</v>
       </c>
       <c r="D23">
-        <v>-0.2538928743515556</v>
+        <v>-0.08623798228335908</v>
       </c>
       <c r="E23">
-        <v>-0.02258916998377413</v>
+        <v>0.1211861438748558</v>
       </c>
       <c r="F23">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -950,16 +950,16 @@
         <v>28</v>
       </c>
       <c r="C24">
-        <v>-0.01694906048038936</v>
+        <v>0.05057447951442984</v>
       </c>
       <c r="D24">
-        <v>-0.2624043462008336</v>
+        <v>0.0753087972069458</v>
       </c>
       <c r="E24">
-        <v>-0.02532641968354535</v>
+        <v>0.254872495723805</v>
       </c>
       <c r="F24">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -970,16 +970,16 @@
         <v>29</v>
       </c>
       <c r="C25">
-        <v>-0.0176496620331783</v>
+        <v>0.009542484210445235</v>
       </c>
       <c r="D25">
-        <v>-0.2656422414895849</v>
+        <v>-0.2284904562282172</v>
       </c>
       <c r="E25">
-        <v>-0.0263593514279298</v>
+        <v>0.03781103152786215</v>
       </c>
       <c r="F25">
-        <v>0.5</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -990,16 +990,16 @@
         <v>30</v>
       </c>
       <c r="C26">
-        <v>0.1284408582818906</v>
+        <v>-0.03360271218356348</v>
       </c>
       <c r="D26">
-        <v>0.4638638885320207</v>
+        <v>-0.6648828946374384</v>
       </c>
       <c r="E26">
-        <v>0.4356420081357562</v>
+        <v>-0.1089737717096023</v>
       </c>
       <c r="F26">
-        <v>0.45</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1010,16 +1010,16 @@
         <v>31</v>
       </c>
       <c r="C27">
-        <v>0.1115860559464428</v>
+        <v>-0.04614217452183722</v>
       </c>
       <c r="D27">
-        <v>0.3795375652896916</v>
+        <v>-0.828172234128655</v>
       </c>
       <c r="E27">
-        <v>0.3784743744530953</v>
+        <v>-0.1342063250999026</v>
       </c>
       <c r="F27">
-        <v>0.4</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -1030,16 +1030,16 @@
         <v>32</v>
       </c>
       <c r="C28">
-        <v>0.09457108143857451</v>
+        <v>-0.04363646070350191</v>
       </c>
       <c r="D28">
-        <v>0.2958307067452083</v>
+        <v>-0.8704433605274304</v>
       </c>
       <c r="E28">
-        <v>0.320763473403849</v>
+        <v>-0.1283714952315811</v>
       </c>
       <c r="F28">
-        <v>0.35</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1050,16 +1050,16 @@
         <v>33</v>
       </c>
       <c r="C29">
-        <v>0.09457108143857451</v>
+        <v>-0.03295901482638652</v>
       </c>
       <c r="D29">
-        <v>0.2958307067452083</v>
+        <v>-0.8961969916464635</v>
       </c>
       <c r="E29">
-        <v>0.320763473403849</v>
+        <v>-0.1488986015528815</v>
       </c>
       <c r="F29">
-        <v>0.35</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1070,16 +1070,16 @@
         <v>34</v>
       </c>
       <c r="C30">
-        <v>0.09767039910794373</v>
+        <v>-0.02923115729499726</v>
       </c>
       <c r="D30">
-        <v>0.3129111953612512</v>
+        <v>-1.029380722164052</v>
       </c>
       <c r="E30">
-        <v>0.3312756499136886</v>
+        <v>-0.1155486486552224</v>
       </c>
       <c r="F30">
-        <v>0.4</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1090,16 +1090,16 @@
         <v>35</v>
       </c>
       <c r="C31">
-        <v>0.09767039910794373</v>
+        <v>-0.01956559839442096</v>
       </c>
       <c r="D31">
-        <v>0.3129111953612512</v>
+        <v>-0.9435366160090251</v>
       </c>
       <c r="E31">
-        <v>0.3312756499136886</v>
+        <v>-0.09506899316382562</v>
       </c>
       <c r="F31">
-        <v>0.4</v>
+        <v>0.05</v>
       </c>
     </row>
   </sheetData>
